--- a/Test_Suite/rdp_edit.xlsx
+++ b/Test_Suite/rdp_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2F8D9-9FE7-44D3-94AB-69B0483E8950}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D7501-6D79-42B9-9B69-2D54BE3E72EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -32,6 +32,106 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToUser()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.Reboot()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
+  </si>
+  <si>
+    <r>
+      <t>Shell_RDP().create(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'standardRDP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shell_RDP().edit(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'editRDP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'standardRDP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shell_RDP().check(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'editRDP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Y</t>
@@ -44,13 +144,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -81,6 +194,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +480,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B2:B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,40 +508,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -480,6 +614,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_Suite/rdp_edit.xlsx
+++ b/Test_Suite/rdp_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D7501-6D79-42B9-9B69-2D54BE3E72EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0908BAE-7574-4974-AF14-A52672E0DAEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test_Suite/rdp_edit.xlsx
+++ b/Test_Suite/rdp_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0908BAE-7574-4974-AF14-A52672E0DAEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD0F45B-F563-41DB-8B63-7AFFC5432450}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,8 +110,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Shell_RDP().check(</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t>Shell_RDP().check_connection(</t>
     </r>
     <r>
       <rPr>
@@ -132,12 +138,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -480,19 +480,19 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="1" customWidth="1"/>
-    <col min="4" max="21" width="9.109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="1" customWidth="1"/>
+    <col min="4" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,110 +506,110 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
     </row>
   </sheetData>
